--- a/imovel_limpo.xlsx
+++ b/imovel_limpo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,63 +477,63 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52</v>
+        <v>530</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270000</v>
+        <v>5000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rua ítalo bordini</t>
+          <t>Rua não encontrada</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>11800000</v>
+        <v>285000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Alameda mamoré</t>
+          <t>Rua alice cintra bormam</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1659</v>
+        <v>1476</v>
       </c>
       <c r="H3" t="n">
-        <v>873</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -545,39 +545,39 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>395000</v>
+        <v>290000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rua marília</t>
+          <t>Rua estrela velha</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>450000</v>
+        <v>100000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua virtude lopes de freitas</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -589,23 +589,23 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>350000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Avenida valentim magalhães</t>
+          <t>Rua não encontrada</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -617,83 +617,83 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>180000</v>
+        <v>590000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rua general osório</t>
+          <t>Rua joão martins claro</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>67</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>430000</v>
+        <v>550000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rua álvaro lins</t>
+          <t>Rua clara</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>270000</v>
+        <v>78201</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Avenida presidente kennedy</t>
+          <t>Quadra 5</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -701,111 +701,111 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>380000</v>
+        <v>155000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rua bela vista</t>
+          <t>Rua honório martiniano da silva</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="B11" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1700000</v>
+        <v>310000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rua dos cravos</t>
+          <t>Avenida helvino moraes</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>796</v>
+        <v>556</v>
       </c>
       <c r="H11" t="n">
-        <v>178</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>235000</v>
+        <v>160000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Avenida braz olaia acosta</t>
+          <t>Rua paschoal jerônimo fornazari</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B13" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>240000</v>
+        <v>95407</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Avenida doutor antônio alves passig</t>
+          <t>Quadra 21</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -813,111 +813,111 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="B14" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>220000</v>
+        <v>790000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rua jorge dos reis e cunha</t>
+          <t>Rua osvaldo pegoretti</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>144</v>
+        <v>360</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>380000</v>
+        <v>143900</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rua silvério souto</t>
+          <t>Rua augusto maass</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>109</v>
+        <v>329</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1489970</v>
+        <v>298000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rua dona brígida</t>
+          <t>Avenida elias maluf</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1600</v>
+        <v>381</v>
       </c>
       <c r="H16" t="n">
-        <v>638</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B17" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>200000</v>
+        <v>480000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rua general osório</t>
+          <t>Rua xangai</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -925,27 +925,27 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>215000</v>
+        <v>199900</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Avenida doutor antônio alves passig</t>
+          <t>Rua não encontrada</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -953,178 +953,178 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>567</v>
+        <v>61</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>191124</v>
+        <v>330000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Estrada dos pires</t>
+          <t>Rua costa lima</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="H19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>410000</v>
+        <v>1449970</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rua antônio ribeiro de rezende</t>
+          <t>Rua paraguaçu</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2265</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>299000</v>
+        <v>355000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Avenida monteiro lobato</t>
+          <t>Avenida lyons</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>81</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="B22" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>370000</v>
+        <v>97778</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rua general osório</t>
+          <t>Quadra 19</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rua damas ortiz</t>
+          <t>Rua dorothy de oliveira</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>36</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B24" t="n">
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>320000</v>
+        <v>545000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rua adalberto pajuaba</t>
+          <t>Rua frederico guarinon</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>500</v>
+        <v>1633</v>
       </c>
       <c r="H24" t="n">
-        <v>74</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -1133,11 +1133,11 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>320000</v>
+        <v>790000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Avenida da saudade</t>
+          <t>Rua osvaldo pegoretti</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1149,51 +1149,51 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>76</v>
+        <v>1000</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>385000</v>
+        <v>470000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rua antônio deloiágono</t>
+          <t>Rodovia joão leme dos santos</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="H26" t="n">
-        <v>128</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="B27" t="n">
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>450000</v>
+        <v>650000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rua jácomo natal granzotto</t>
+          <t>Rua vasco fernandes coutinho</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1205,51 +1205,51 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1649970</v>
+        <v>285000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Avenida jurema</t>
+          <t>Rua júlio ribeiro</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2323</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>489</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>390000</v>
+        <v>309000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rua gedeon alves feitosa</t>
+          <t>Rua brasílio machado</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1261,23 +1261,23 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>380000</v>
+        <v>240000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Estrada samuel aizemberg</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1289,35 +1289,35 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1056</v>
+        <v>385</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>38000000</v>
+        <v>280000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Rua dos pinheiros</t>
+          <t>Avenida gabriel seme cury</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>19000</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
@@ -1326,74 +1326,74 @@
         <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>575000</v>
+        <v>455000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Rua arujá</t>
+          <t>Rua rf-01</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1490000</v>
+        <v>200000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Estrada velha indaiatuba - campinas</t>
+          <t>Avenida fabril</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>210000</v>
+        <v>532000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Estrada da fazenda velha</t>
+          <t>Rua gamboa</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1401,83 +1401,83 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>220000</v>
+        <v>375000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Rua francisco rosaboni</t>
+          <t>Rua antônio mendes</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="B36" t="n">
         <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>270000</v>
+        <v>375000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rua avelino hermes</t>
+          <t>Praça demercindo alves da silva</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B37" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>400000</v>
+        <v>508800</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rua humaitá</t>
+          <t>Rua baía blanca</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1485,35 +1485,35 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>340000</v>
+        <v>190000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Estrada municipal francisco alves monteiro</t>
+          <t>Rua seraphim banietti</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="H38" t="n">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>260</v>
+        <v>480</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -1525,15 +1525,15 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>200000</v>
+        <v>370000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rua cassia fernanda coggo martin</t>
+          <t>Rua não encontrada</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>500</v>
+        <v>1125</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1541,163 +1541,163 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>210000</v>
+        <v>350000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Avenida monteiro lobato</t>
+          <t>Rua júlio verne</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>350000</v>
+        <v>315000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Avenida marechal rondon</t>
+          <t>Avenida campinas</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B42" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>225000</v>
+        <v>320000</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Rua albino gonçalves</t>
+          <t>Rua xingu</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>450</v>
+        <v>581</v>
       </c>
       <c r="H42" t="n">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>362000</v>
+        <v>1190000</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Rua brasílio machado</t>
+          <t>Rua sousa noschese</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>994980</v>
+        <v>425000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Rua guaraiúva</t>
+          <t>Rua luzitânia</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2000</v>
+        <v>630</v>
       </c>
       <c r="H44" t="n">
-        <v>610</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>48</v>
+        <v>250</v>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>370800</v>
+        <v>120000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Avenida salgado filho</t>
+          <t>Estrada municipal dos remédios</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -1709,35 +1709,35 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>280000</v>
+        <v>500000</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rua hercília</t>
+          <t>Rua milton barreto</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="B47" t="n">
         <v>2</v>
@@ -1749,15 +1749,15 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>76705</v>
+        <v>201200</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Quadra 80</t>
+          <t>Avenida protásio alves</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -1765,35 +1765,35 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>448000</v>
+        <v>185000</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Rua josé faustino cavalcanti</t>
+          <t>Rua monte alegre</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="B49" t="n">
         <v>2</v>
@@ -1802,54 +1802,54 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>210000</v>
+        <v>580000</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Avenida dona albertina de pina</t>
+          <t>Rua alberto de oliveira</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>8999970</v>
+        <v>450000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rua ministro gabriel de rezende passos</t>
+          <t>Rua manicoré</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>2270</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B51" t="n">
         <v>3</v>
@@ -1861,71 +1861,71 @@
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>1489990</v>
+        <v>490000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Rua dona brígida</t>
+          <t>Rua césar de meneses</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1600</v>
+        <v>80</v>
       </c>
       <c r="H51" t="n">
-        <v>638</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>414</v>
+        <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>540000</v>
+        <v>350000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Rua professor antonio mendes vinagre</t>
+          <t>Rua antônio saad</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>190000</v>
+        <v>335000</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Rua oceano pacífico</t>
+          <t>Rua afonso lopes</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -1933,55 +1933,55 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>70</v>
+        <v>672</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>350000</v>
+        <v>390000</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Rua leopoldo froes</t>
+          <t>Rua doutor wenceslau botelho</t>
         </is>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>360000</v>
+        <v>532000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Avenida antônio machado sant'anna</t>
+          <t>Rua gamboa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -1989,27 +1989,27 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B56" t="n">
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>220000</v>
+        <v>370000</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Avenida monteiro lobato</t>
+          <t>Rua cananéia</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2017,23 +2017,23 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>65921</v>
+        <v>420000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Quadra 80</t>
+          <t>Rua expedicionário teodoro francisco ribeiro</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2045,27 +2045,27 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>245000</v>
+        <v>800000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Avenida presidente kennedy</t>
+          <t>Avenida são paulo paraná</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2073,119 +2073,119 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>600000</v>
+        <v>271000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Rua voluntários da pátria</t>
+          <t>Rua brasílio machado</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="B60" t="n">
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>380000</v>
+        <v>600000</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alameda josé de oliveira guimarães</t>
+          <t>Rua magalhães barata</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>215000</v>
+        <v>580000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rua cristóvão cardoso de barros</t>
+          <t>Rua rogério giorgi</t>
         </is>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1000</v>
+        <v>217</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>280000</v>
+        <v>2099980</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Rua moacyr corrêa</t>
+          <t>Rua otávio tarquínio de sousa</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3654</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -2194,14 +2194,14 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>212000</v>
+        <v>680000</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rua taquaras</t>
+          <t>Rua buenos aires</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -2213,94 +2213,94 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>290000</v>
+        <v>860000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rua general osório</t>
+          <t>Rua atabasca</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>740</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>618000</v>
+        <v>210000</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rua frei caneca</t>
+          <t>Rua conceição</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B66" t="n">
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>94815</v>
+        <v>691000</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Quadra 06</t>
+          <t>Rua antônio munhoz</t>
         </is>
       </c>
       <c r="G66" t="n">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="B67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
@@ -2309,191 +2309,191 @@
         <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>600000</v>
+        <v>355000</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rua sílvio romero</t>
+          <t>Rua romano tognato</t>
         </is>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="B68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>2349980</v>
+        <v>530000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rua gabriele d'annunzio</t>
+          <t>Rua oslo</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>1970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>390000</v>
+        <v>340000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rua henrique dumont</t>
+          <t>Avenida ministro oswaldo aranha</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>102500</v>
+        <v>1590000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Avenida dos lagos</t>
         </is>
       </c>
       <c r="G70" t="n">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1644</v>
+        <v>110</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>904458</v>
+        <v>2100000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Avenida isaura roque quércia</t>
+          <t>Rua bom sucesso</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Avenida coronel fernando ferreira leite</t>
+          <t>Rua alencastro</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="B73" t="n">
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>500000</v>
+        <v>560000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rua joão vieira carneiro</t>
+          <t>Rua manoel ribeiro de andrade</t>
         </is>
       </c>
       <c r="G73" t="n">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>250</v>
+        <v>564</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -2505,79 +2505,79 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>260000</v>
+        <v>535000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Rua boa esperança</t>
+          <t>Rua emílio terciani</t>
         </is>
       </c>
       <c r="G74" t="n">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>180</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="B75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>510000</v>
+        <v>1290000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rua paranapanema</t>
+          <t>Rua doutor josé maria whitaker</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>56</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>230000</v>
+        <v>640000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Rua primo bruno pezzolo</t>
         </is>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="B77" t="n">
         <v>3</v>
@@ -2589,11 +2589,11 @@
         <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>210000</v>
+        <v>797760</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rua arthur edmur pimentel</t>
+          <t>Avenida alberto augusto alves</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -2605,23 +2605,23 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>56</v>
+        <v>477</v>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>375000</v>
+        <v>185000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rua ceará</t>
+          <t>Rua quintino bocaiúva</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -2633,27 +2633,27 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B79" t="n">
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>330000</v>
+        <v>640000</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Avenida da saudade</t>
+          <t>Rua sete de abril</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -2661,107 +2661,107 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B80" t="n">
         <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>387718</v>
+        <v>190000</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rua dallas</t>
+          <t>Rua coronel vicente</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>495000</v>
+        <v>155000</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Rua rodesia</t>
+          <t>Rua geraldo sampaio sobrinho</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H81" t="n">
-        <v>209</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>395000</v>
+        <v>862000</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Rua virgulino de oliveira</t>
+          <t>Rua lorena</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="B83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>170000</v>
+        <v>500000</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Rua nelson garcia</t>
+          <t>Rua coronel josé pedro de oliveira</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -2773,7 +2773,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B84" t="n">
         <v>2</v>
@@ -2785,71 +2785,71 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>185000</v>
+        <v>380000</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Avenida dois córregos</t>
+          <t>Avenida elísio teixeira leite</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>85477</v>
+        <v>500000</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Qa 3</t>
+          <t>Avenida doutor carlos de campos</t>
         </is>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>1210934</v>
+        <v>380000</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Avenida pedro luiz ribeiro</t>
+          <t>Rua cangioca</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -2857,79 +2857,79 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>325000</v>
+        <v>54930</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Rua carlos eduardo santagnello</t>
+          <t>Quadra 5</t>
         </is>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>180000</v>
+        <v>1166000</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rua aparecido antônio dos santos</t>
+          <t>Rua vinte e três de maio</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>60340</v>
+        <v>360000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Quadra 35</t>
+          <t>Rua não encontrada</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -2941,23 +2941,23 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>599000</v>
+        <v>500000</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Praça tenório de aguiar</t>
+          <t>Rua josé marcondes quadros</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -2969,55 +2969,55 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>419900</v>
+        <v>1599880</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Avenida sorocabana</t>
+          <t>Rua josé augusto penteado</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>699</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>130000</v>
+        <v>568000</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rua álvares de azevedo</t>
+          <t>Rua armida</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3025,55 +3025,55 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>210000</v>
+        <v>1050000</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Avenida tanabi</t>
+          <t>Rua sud menucci</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>560000</v>
+        <v>799000</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rua saldanha marinho</t>
+          <t>Rua arthur piske</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>560000</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3081,83 +3081,83 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>410000</v>
+        <v>380000</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rua santa rita do passa quatro</t>
+          <t>Travessa joão mendes</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>165000</v>
+        <v>1400000</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rua pedro castro martins</t>
+          <t>Rua bento branco de andrade filho</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>250</v>
+        <v>850</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>149</v>
+        <v>1850</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E97" t="n">
-        <v>790000</v>
+        <v>35000000</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rua contorno</t>
+          <t>Avenida francisco matarazzo</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3165,23 +3165,23 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>290000</v>
+        <v>550000</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rua estrela velha</t>
+          <t>Avenida sorocaba</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -3193,86 +3193,226 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>20000</v>
+        <v>85</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>150000</v>
+        <v>490000</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rua 1 chácara 106a conjunto c</t>
+          <t>Rua guaranis</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>280000</v>
+        <v>1444980</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rua não encontrada</t>
+          <t>Avenida dos imarés</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>387</v>
+        <v>1050</v>
       </c>
       <c r="H100" t="n">
-        <v>54</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" t="n">
         <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>375000</v>
+        <v>800000</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rua oswaldo evaristo da costa</t>
+          <t>Rua apolo</t>
         </is>
       </c>
       <c r="G101" t="n">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>360</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2350000</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Rua república do iraque</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>70</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>620000</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Rua sete de outubro</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>740</v>
+      </c>
+      <c r="H103" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>37</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>223000</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Rua dona elisa fláquer</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>400</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>397</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>8</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Rua albertina nascimento</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>289</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>498000</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Rua são luiz gonzaga</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1356</v>
       </c>
     </row>
   </sheetData>
